--- a/biology/Zoologie/Atelopus_loettersi/Atelopus_loettersi.xlsx
+++ b/biology/Zoologie/Atelopus_loettersi/Atelopus_loettersi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus loettersi est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus loettersi est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pérou[1]. Elle se rencontre dans les régions de Cuzco, de Madre de Dios et de Puno, entre 400 et 1 000 m d'altitude sur le versant amazonien de la cordillère Orientale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pérou. Elle se rencontre dans les régions de Cuzco, de Madre de Dios et de Puno, entre 400 et 1 000 m d'altitude sur le versant amazonien de la cordillère Orientale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus loettersi[2] mesure environ 24 à 27 mm pour les mâles et environ 35 mm pour les femelles[3]. Son dos est brun foncé avec des taches irrégulières vert pâle. Sa gorge est crème et le reste de sa face ventrale jaune pâle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus loettersi mesure environ 24 à 27 mm pour les mâles et environ 35 mm pour les femelles. Son dos est brun foncé avec des taches irrégulières vert pâle. Sa gorge est crème et le reste de sa face ventrale jaune pâle.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Stefan Lötters, herpétologiste allemand, qui est notamment à l'origine des photos prises de l'holotype en vie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Stefan Lötters, herpétologiste allemand, qui est notamment à l'origine des photos prises de l'holotype en vie.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De la Riva, Castroviejo-Fisher, Chaparro, Boistel &amp; Padial, 2011 : A new species of Atelopus (Anura: Bufonidae) from the Amazonian slopes of the Andes in south-eastern Peru. Salamandra, vol. 47, p. 161-168 (texte intégral).</t>
         </is>
